--- a/results/I3_N5_M2_T15_C100_DepCentral_s0_P5_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2839.031183984788</v>
+        <v>858.2128833321004</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007000207901000977</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.57702921450956</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.867884439658271</v>
+        <v>4.02175110787769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.192039209931101</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2376.790000000006</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.34</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.049422047206319</v>
+        <v>7.091900992101005</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>10.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.57904977333279</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.837257427557379</v>
+        <v>14.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.83692585281499</v>
+        <v>14.49989205841819</v>
       </c>
     </row>
     <row r="9">
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1062,10 +1018,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1076,10 +1032,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1090,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1101,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1129,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1143,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1157,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,71 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1338,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.12500000000065</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1349,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>69.98000000000064</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1360,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.84500000000065</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1371,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.99000000000066</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.99000000000066</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6400000000006</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1404,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2250000000006</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1415,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3450000000006</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -1426,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>178.0200000000006</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1437,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>175.2100000000006</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1448,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>157.155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1459,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>157.7550000000001</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1470,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>166.015</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1481,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.985</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1492,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>168.73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>265.67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1514,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>254.675</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1525,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>272.66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1536,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>260.73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1547,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>269.22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1558,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1569,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
@@ -1580,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1591,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -1602,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
@@ -1613,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.6400000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1624,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.2250000000006</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -1635,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>173.3450000000006</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1646,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>178.0200000000006</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1657,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>175.2100000000006</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1668,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>265.67</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1679,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>254.675</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39">
@@ -1690,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>272.66</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -1701,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>260.73</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41">
@@ -1712,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>269.22</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.64000000000055</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1770,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.22500000000056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>73.3450000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1792,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>78.02000000000058</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1803,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>75.21000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1814,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>165.67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1825,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>154.675</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -1836,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>172.66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1847,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>169.22</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1916,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1927,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1938,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1949,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1960,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1971,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1982,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1993,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2004,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2015,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2026,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2037,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2048,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2059,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2125,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2136,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2147,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2158,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2279,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2287,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2298,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2309,10 +2209,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2320,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2331,45 +2231,12 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
